--- a/SchedulingData/dynamic9/pso/scheduling2_3.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_3.xlsx
@@ -462,121 +462,121 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>203.92</v>
+        <v>230.58</v>
       </c>
       <c r="D2" t="n">
-        <v>276.02</v>
+        <v>269.02</v>
       </c>
       <c r="E2" t="n">
-        <v>10.588</v>
+        <v>14.268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>250.02</v>
+        <v>235.2</v>
       </c>
       <c r="D3" t="n">
-        <v>314.92</v>
+        <v>314.4</v>
       </c>
       <c r="E3" t="n">
-        <v>12.148</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>231</v>
+        <v>314.4</v>
       </c>
       <c r="D4" t="n">
-        <v>309.9</v>
+        <v>371.9</v>
       </c>
       <c r="E4" t="n">
-        <v>12.64</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>276.02</v>
+        <v>231.42</v>
       </c>
       <c r="D5" t="n">
-        <v>318.14</v>
+        <v>300.18</v>
       </c>
       <c r="E5" t="n">
-        <v>7.996</v>
+        <v>13.132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>238.94</v>
+        <v>300.18</v>
       </c>
       <c r="D6" t="n">
-        <v>290.94</v>
+        <v>344.98</v>
       </c>
       <c r="E6" t="n">
-        <v>11.616</v>
+        <v>10.272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>201.48</v>
+        <v>206.84</v>
       </c>
       <c r="D7" t="n">
-        <v>234.38</v>
+        <v>281.02</v>
       </c>
       <c r="E7" t="n">
-        <v>14.132</v>
+        <v>13.388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,32 +584,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>211.06</v>
+        <v>220.4</v>
       </c>
       <c r="D8" t="n">
-        <v>280.36</v>
+        <v>265.2</v>
       </c>
       <c r="E8" t="n">
-        <v>13.104</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>314.92</v>
+        <v>224.7</v>
       </c>
       <c r="D9" t="n">
-        <v>368.26</v>
+        <v>292.1</v>
       </c>
       <c r="E9" t="n">
-        <v>9.444000000000001</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>309.9</v>
+        <v>281.02</v>
       </c>
       <c r="D10" t="n">
-        <v>350.32</v>
+        <v>332.94</v>
       </c>
       <c r="E10" t="n">
-        <v>9.728</v>
+        <v>10.796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>318.14</v>
+        <v>292.1</v>
       </c>
       <c r="D11" t="n">
-        <v>379.64</v>
+        <v>340.48</v>
       </c>
       <c r="E11" t="n">
-        <v>4.936</v>
+        <v>8.712</v>
       </c>
     </row>
     <row r="12">
@@ -656,131 +656,131 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>280.36</v>
+        <v>344.98</v>
       </c>
       <c r="D12" t="n">
-        <v>330.26</v>
+        <v>395.76</v>
       </c>
       <c r="E12" t="n">
-        <v>10.244</v>
+        <v>7.304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>330.26</v>
+        <v>269.02</v>
       </c>
       <c r="D13" t="n">
-        <v>374.02</v>
+        <v>343.1</v>
       </c>
       <c r="E13" t="n">
-        <v>7.488</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>350.32</v>
+        <v>265.2</v>
       </c>
       <c r="D14" t="n">
-        <v>411.2</v>
+        <v>298.9</v>
       </c>
       <c r="E14" t="n">
-        <v>6.76</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>290.94</v>
+        <v>332.94</v>
       </c>
       <c r="D15" t="n">
-        <v>339.34</v>
+        <v>390.7</v>
       </c>
       <c r="E15" t="n">
-        <v>9.375999999999999</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>339.34</v>
+        <v>298.9</v>
       </c>
       <c r="D16" t="n">
-        <v>403.62</v>
+        <v>344.32</v>
       </c>
       <c r="E16" t="n">
-        <v>6.568</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>234.38</v>
+        <v>340.48</v>
       </c>
       <c r="D17" t="n">
-        <v>293.3</v>
+        <v>397.08</v>
       </c>
       <c r="E17" t="n">
-        <v>10.38</v>
+        <v>5.652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>293.3</v>
+        <v>344.32</v>
       </c>
       <c r="D18" t="n">
-        <v>331.06</v>
+        <v>392.88</v>
       </c>
       <c r="E18" t="n">
-        <v>7.244</v>
+        <v>2.292</v>
       </c>
     </row>
   </sheetData>
